--- a/resources/start_data/CoreCollectionsInfoPCE.xlsx
+++ b/resources/start_data/CoreCollectionsInfoPCE.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josephinelovemachine/soyadapt_data_analysis/resources/start_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98D7438A-5505-4A40-A363-56D0BBA765E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEA8D3DB-DDEA-5D40-9937-C911612918A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,9 +28,6 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -5077,10 +5075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP422"/>
+  <dimension ref="A1:AP430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -52883,6 +52881,12 @@
         <v>11002</v>
       </c>
     </row>
+    <row r="430" spans="1:42">
+      <c r="C430">
+        <f>422-7</f>
+        <v>415</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="https://npgsweb.ars-grin.gov/gringlobal/search.aspx" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
